--- a/weekly/2025-CW06_weight_tracking.xlsx
+++ b/weekly/2025-CW06_weight_tracking.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,38 +486,50 @@
       <c r="B2" t="n">
         <v>101.4</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>101.7</v>
+      </c>
       <c r="D2" t="n">
         <v>29</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45920</v>
+        <v>45921</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>102.2</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>26.7</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45921</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>45922</v>
+      </c>
+      <c r="B4" t="n">
+        <v>101.5</v>
+      </c>
       <c r="C4" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>101.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.5</v>
+      </c>
       <c r="E4" t="n">
-        <v>26.7</v>
+        <v>29.3</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -525,19 +537,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B5" t="n">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="C5" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="D5" t="n">
         <v>29.5</v>
       </c>
       <c r="E5" t="n">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -545,19 +557,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="C6" t="n">
-        <v>101.4</v>
+        <v>100.7</v>
       </c>
       <c r="D6" t="n">
         <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>28.2</v>
+        <v>27.1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -565,43 +577,23 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B7" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="C7" t="n">
-        <v>100.7</v>
+        <v>101.9</v>
       </c>
       <c r="D7" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E7" t="n">
-        <v>27.1</v>
+        <v>26.2</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45925</v>
-      </c>
-      <c r="B8" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/weekly/2025-CW06_weight_tracking.xlsx
+++ b/weekly/2025-CW06_weight_tracking.xlsx
@@ -486,15 +486,11 @@
       <c r="B2" t="n">
         <v>101.4</v>
       </c>
-      <c r="C2" t="n">
-        <v>101.7</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>29</v>
       </c>
-      <c r="E2" t="n">
-        <v>27.6</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
